--- a/Documentation/Sewage I & II/Carga Instalada.xlsx
+++ b/Documentation/Sewage I & II/Carga Instalada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AVTi\São Rafael I &amp; II\Documentation\Sewage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AVTi\São Rafael\Documentation\Sewage I &amp; II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="0\ &quot;W&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;kW&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Light"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Abadi MT Condensed Light"/>
@@ -342,9 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +417,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +703,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,260 +717,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>100</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>E2*D2</f>
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>0.5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F10" si="0">E3*D3</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>300</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>1.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17">
-        <v>2.66</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17">
-        <v>0.93</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17">
-        <v>3.55</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="16">
+        <v>3.68</v>
+      </c>
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
+        <v>10.77</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.31</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <f>SUM(F3,F5:F10) + (SUM(F2,F4)/1000)</f>
-        <v>34.409999999999997</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="1"/>

--- a/Documentation/Sewage I & II/Carga Instalada.xlsx
+++ b/Documentation/Sewage I & II/Carga Instalada.xlsx
@@ -416,10 +416,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +703,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="F6" sqref="F6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -915,27 +915,27 @@
         <v>11</v>
       </c>
       <c r="D10" s="17">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="11">
         <v>2</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="20">
         <f>SUM(F3,F5:F10) + (SUM(F2,F4)/1000)</f>
-        <v>35.49</v>
+        <v>35.79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -947,14 +947,14 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
